--- a/N-back/con_block.xlsx
+++ b/N-back/con_block.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryougi mana\Desktop\5 心理学工具箱\psychpyProgram\cog_effort_discount_paradigm\N-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5612A79-DDF3-46F2-A993-6D348A55967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF1E21-9F84-4BD9-8ADC-9FA9C6940370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,15 +47,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>brown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lv_Diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>color_Diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,17 +384,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/N-back/con_block.xlsx
+++ b/N-back/con_block.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryougi mana\Desktop\5 心理学工具箱\psychpyProgram\cog_effort_discount_paradigm\N-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF1E21-9F84-4BD9-8ADC-9FA9C6940370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED1721-5FCD-4E07-B4FA-49F5CA069CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>red</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,34 @@
   </si>
   <si>
     <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_instr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,68 +409,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
